--- a/BIOMETRICO/entregas/mes_produccion_2025_10.xlsx
+++ b/BIOMETRICO/entregas/mes_produccion_2025_10.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\donsson\proyectos\BIOMETRICO\entregas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1F2619-DDCA-4B78-96FA-29C5B97DCE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diario" sheetId="1" r:id="rId1"/>
-    <sheet name="Mensual" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Diario!$A$1:$J$55</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="17">
   <si>
     <t>empleado</t>
   </si>
@@ -38,26 +46,45 @@
     <t>horas_trabajadas</t>
   </si>
   <si>
+    <t>horas_esperadas_dia</t>
+  </si>
+  <si>
+    <t>horas_extra</t>
+  </si>
+  <si>
     <t>llegada</t>
   </si>
   <si>
-    <t>horas_trabajadas_total</t>
+    <t>ELKIN FABIAN DAZA PLAZAS</t>
   </si>
   <si>
-    <t>horas_ideales</t>
+    <t>ERNESTO VALENCIA</t>
   </si>
   <si>
-    <t>cumplimiento</t>
+    <t>ROBER JULIO CABALLERO</t>
   </si>
   <si>
-    <t>dias_con_registros</t>
+    <t>PRODUCCION</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>A tiempo</t>
+  </si>
+  <si>
+    <t>Tarde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,24 +136,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +201,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -198,6 +235,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -232,9 +270,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,14 +446,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36:I55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,41 +490,1743 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45944</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45944.676099537042</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45944.676099537042</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>9.5</v>
+      </c>
+      <c r="I2">
+        <v>-9.5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45945</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45945.261157407411</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45945.67496527778</v>
+      </c>
+      <c r="G3">
+        <v>9.9313888888888897</v>
+      </c>
+      <c r="H3">
+        <v>9.5</v>
+      </c>
+      <c r="I3">
+        <v>0.43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45946</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45946.262442129628</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45946.677881944437</v>
+      </c>
+      <c r="G4">
+        <v>9.9705555555555563</v>
+      </c>
+      <c r="H4">
+        <v>9.5</v>
+      </c>
+      <c r="I4">
+        <v>0.47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45947</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>45947.258946759262</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45947.635752314818</v>
+      </c>
+      <c r="G5">
+        <v>9.043333333333333</v>
+      </c>
+      <c r="H5">
+        <v>8.5</v>
+      </c>
+      <c r="I5">
+        <v>0.54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45950</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45950.25613425926</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45950.675543981481</v>
+      </c>
+      <c r="G6">
+        <v>10.06583333333333</v>
+      </c>
+      <c r="H6">
+        <v>9.5</v>
+      </c>
+      <c r="I6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45951</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45951.259583333333</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45951.679803240739</v>
+      </c>
+      <c r="G7">
+        <v>10.08527777777778</v>
+      </c>
+      <c r="H7">
+        <v>9.5</v>
+      </c>
+      <c r="I7">
+        <v>0.59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45952</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45952.255520833343</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45952.677731481483</v>
+      </c>
+      <c r="G8">
+        <v>10.133055555555559</v>
+      </c>
+      <c r="H8">
+        <v>9.5</v>
+      </c>
+      <c r="I8">
+        <v>0.63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45953</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45953.253668981481</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45953.674884259257</v>
+      </c>
+      <c r="G9">
+        <v>10.10916666666667</v>
+      </c>
+      <c r="H9">
+        <v>9.5</v>
+      </c>
+      <c r="I9">
+        <v>0.61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45954</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45954.274618055562</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45954.635428240741</v>
+      </c>
+      <c r="G10">
+        <v>8.6594444444444445</v>
+      </c>
+      <c r="H10">
+        <v>8.5</v>
+      </c>
+      <c r="I10">
+        <v>0.16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45955</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45955.285381944443</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45955.501759259263</v>
+      </c>
+      <c r="G11">
+        <v>5.1930555555555564</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>5.19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45957</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>45957.263356481482</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45957.675625000003</v>
+      </c>
+      <c r="G12">
+        <v>9.8944444444444439</v>
+      </c>
+      <c r="H12">
+        <v>9.5</v>
+      </c>
+      <c r="I12">
+        <v>0.39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45958</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45958.263287037043</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45958.522291666668</v>
+      </c>
+      <c r="G13">
+        <v>6.2161111111111111</v>
+      </c>
+      <c r="H13">
+        <v>9.5</v>
+      </c>
+      <c r="I13">
+        <v>-3.28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45931.241539351853</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45931.706724537027</v>
+      </c>
+      <c r="G14">
+        <v>11.164444444444451</v>
+      </c>
+      <c r="H14">
+        <v>9.5</v>
+      </c>
+      <c r="I14">
+        <v>1.66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45932</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>45932.237615740742</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45932.705821759257</v>
+      </c>
+      <c r="G15">
+        <v>11.23694444444445</v>
+      </c>
+      <c r="H15">
+        <v>9.5</v>
+      </c>
+      <c r="I15">
+        <v>1.74</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45933</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45933.240706018521</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45933.668993055559</v>
+      </c>
+      <c r="G16">
+        <v>10.27888888888889</v>
+      </c>
+      <c r="H16">
+        <v>8.5</v>
+      </c>
+      <c r="I16">
+        <v>1.78</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45934</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45934.237534722219</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45934.419791666667</v>
+      </c>
+      <c r="G17">
+        <v>4.3741666666666674</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>4.37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45936</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>45936.240520833337</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45936.706562500003</v>
+      </c>
+      <c r="G18">
+        <v>11.185</v>
+      </c>
+      <c r="H18">
+        <v>9.5</v>
+      </c>
+      <c r="I18">
+        <v>1.69</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45937</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45937.238761574074</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45937.706967592603</v>
+      </c>
+      <c r="G19">
+        <v>11.23694444444445</v>
+      </c>
+      <c r="H19">
+        <v>9.5</v>
+      </c>
+      <c r="I19">
+        <v>1.74</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45938</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45938.237037037034</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45938.707557870373</v>
+      </c>
+      <c r="G20">
+        <v>11.2925</v>
+      </c>
+      <c r="H20">
+        <v>9.5</v>
+      </c>
+      <c r="I20">
+        <v>1.79</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45939</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45939.239861111113</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45939.707650462973</v>
+      </c>
+      <c r="G21">
+        <v>11.226944444444451</v>
+      </c>
+      <c r="H21">
+        <v>9.5</v>
+      </c>
+      <c r="I21">
+        <v>1.73</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45940.237303240741</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45940.670740740738</v>
+      </c>
+      <c r="G22">
+        <v>10.4025</v>
+      </c>
+      <c r="H22">
+        <v>8.5</v>
+      </c>
+      <c r="I22">
+        <v>1.9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45941</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45941.240671296298</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45941.419756944437</v>
+      </c>
+      <c r="G23">
+        <v>4.298055555555556</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4.3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45944</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45944.243333333332</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45944.707129629627</v>
+      </c>
+      <c r="G24">
+        <v>11.13111111111111</v>
+      </c>
+      <c r="H24">
+        <v>9.5</v>
+      </c>
+      <c r="I24">
+        <v>1.63</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45945</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>45945.248749999999</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45945.707870370366</v>
+      </c>
+      <c r="G25">
+        <v>11.01888888888889</v>
+      </c>
+      <c r="H25">
+        <v>9.5</v>
+      </c>
+      <c r="I25">
+        <v>1.52</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45946</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
+        <v>45946.240972222222</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45946.701956018522</v>
+      </c>
+      <c r="G26">
+        <v>11.06361111111111</v>
+      </c>
+      <c r="H26">
+        <v>9.5</v>
+      </c>
+      <c r="I26">
+        <v>1.56</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45947</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45947.238587962973</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45947.669363425928</v>
+      </c>
+      <c r="G27">
+        <v>10.33861111111111</v>
+      </c>
+      <c r="H27">
+        <v>8.5</v>
+      </c>
+      <c r="I27">
+        <v>1.84</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45948</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45948.237974537027</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45948.419965277782</v>
+      </c>
+      <c r="G28">
+        <v>4.3677777777777784</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>4.37</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45950</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>45950.238298611112</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45950.67392361111</v>
+      </c>
+      <c r="G29">
+        <v>10.455</v>
+      </c>
+      <c r="H29">
+        <v>9.5</v>
+      </c>
+      <c r="I29">
+        <v>0.96</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45951</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>45951.236134259263</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45951.674444444441</v>
+      </c>
+      <c r="G30">
+        <v>10.51944444444444</v>
+      </c>
+      <c r="H30">
+        <v>9.5</v>
+      </c>
+      <c r="I30">
+        <v>1.02</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45952</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45952.23951388889</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45952.674259259264</v>
+      </c>
+      <c r="G31">
+        <v>10.433888888888889</v>
+      </c>
+      <c r="H31">
+        <v>9.5</v>
+      </c>
+      <c r="I31">
+        <v>0.93</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45953</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45953.236273148148</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45953.674791666657</v>
+      </c>
+      <c r="G32">
+        <v>10.524444444444439</v>
+      </c>
+      <c r="H32">
+        <v>9.5</v>
+      </c>
+      <c r="I32">
+        <v>1.02</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45954</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45954.237291666657</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45954.633136574077</v>
+      </c>
+      <c r="G33">
+        <v>9.5002777777777769</v>
+      </c>
+      <c r="H33">
+        <v>8.5</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45957</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3">
+        <v>45957.240231481483</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45957.674212962957</v>
+      </c>
+      <c r="G34">
+        <v>10.415555555555549</v>
+      </c>
+      <c r="H34">
+        <v>9.5</v>
+      </c>
+      <c r="I34">
+        <v>0.92</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45958</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45958.238807870373</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45958.536944444437</v>
+      </c>
+      <c r="G35">
+        <v>7.1552777777777781</v>
+      </c>
+      <c r="H35">
+        <v>9.5</v>
+      </c>
+      <c r="I35">
+        <v>-2.34</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>45931.271574074082</v>
+      </c>
+      <c r="F36" s="3">
+        <v>45931.669398148151</v>
+      </c>
+      <c r="G36">
+        <v>9.5477777777777781</v>
+      </c>
+      <c r="H36">
+        <v>9.5</v>
+      </c>
+      <c r="I36">
+        <v>0.05</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45932</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3">
+        <v>45932.272835648153</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45932.674351851849</v>
+      </c>
+      <c r="G37">
+        <v>9.636388888888888</v>
+      </c>
+      <c r="H37">
+        <v>9.5</v>
+      </c>
+      <c r="I37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45933</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>45933.273888888893</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45933.632569444453</v>
+      </c>
+      <c r="G38">
+        <v>8.6083333333333325</v>
+      </c>
+      <c r="H38">
+        <v>8.5</v>
+      </c>
+      <c r="I38">
+        <v>0.11</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45936</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>45936.274965277778</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45936.529328703713</v>
+      </c>
+      <c r="G39">
+        <v>6.1047222222222226</v>
+      </c>
+      <c r="H39">
+        <v>9.5</v>
+      </c>
+      <c r="I39">
+        <v>-3.4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45937</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" s="3">
+        <v>45937.2737037037</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45937.676099537042</v>
+      </c>
+      <c r="G40">
+        <v>9.6575000000000006</v>
+      </c>
+      <c r="H40">
+        <v>9.5</v>
+      </c>
+      <c r="I40">
+        <v>0.16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45938</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45938.273090277777</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45938.674456018518</v>
+      </c>
+      <c r="G41">
+        <v>9.6327777777777772</v>
+      </c>
+      <c r="H41">
+        <v>9.5</v>
+      </c>
+      <c r="I41">
+        <v>0.13</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45939</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45939.26935185185</v>
+      </c>
+      <c r="F42" s="3">
+        <v>45939.674456018518</v>
+      </c>
+      <c r="G42">
+        <v>9.7225000000000001</v>
+      </c>
+      <c r="H42">
+        <v>9.5</v>
+      </c>
+      <c r="I42">
+        <v>0.22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45940.286608796298</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45940.632719907408</v>
+      </c>
+      <c r="G43">
+        <v>8.3066666666666666</v>
+      </c>
+      <c r="H43">
+        <v>8.5</v>
+      </c>
+      <c r="I43">
+        <v>-0.19</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45944</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45944.674293981479</v>
+      </c>
+      <c r="F44" s="3">
+        <v>45944.674293981479</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>9.5</v>
+      </c>
+      <c r="I44">
+        <v>-9.5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45945</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
+        <v>45945.265092592592</v>
+      </c>
+      <c r="F45" s="3">
+        <v>45945.674490740741</v>
+      </c>
+      <c r="G45">
+        <v>9.8255555555555549</v>
+      </c>
+      <c r="H45">
+        <v>9.5</v>
+      </c>
+      <c r="I45">
+        <v>0.33</v>
+      </c>
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45946</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
+        <v>45946.301041666673</v>
+      </c>
+      <c r="F46" s="3">
+        <v>45946.675069444442</v>
+      </c>
+      <c r="G46">
+        <v>8.9766666666666666</v>
+      </c>
+      <c r="H46">
+        <v>9.5</v>
+      </c>
+      <c r="I46">
+        <v>-0.52</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45947</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" s="3">
+        <v>45947.266724537039</v>
+      </c>
+      <c r="F47" s="3">
+        <v>45947.533368055563</v>
+      </c>
+      <c r="G47">
+        <v>6.3994444444444447</v>
+      </c>
+      <c r="H47">
+        <v>8.5</v>
+      </c>
+      <c r="I47">
+        <v>-2.1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45950</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45950.278819444437</v>
+      </c>
+      <c r="F48" s="3">
+        <v>45950.674050925933</v>
+      </c>
+      <c r="G48">
+        <v>9.4855555555555551</v>
+      </c>
+      <c r="H48">
+        <v>9.5</v>
+      </c>
+      <c r="I48">
+        <v>-0.01</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45951</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3">
+        <v>45951.266909722217</v>
+      </c>
+      <c r="F49" s="3">
+        <v>45951.674178240741</v>
+      </c>
+      <c r="G49">
+        <v>9.7744444444444447</v>
+      </c>
+      <c r="H49">
+        <v>9.5</v>
+      </c>
+      <c r="I49">
+        <v>0.27</v>
+      </c>
+      <c r="J49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45952</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45952.265451388892</v>
+      </c>
+      <c r="F50" s="3">
+        <v>45952.676122685189</v>
+      </c>
+      <c r="G50">
+        <v>9.8561111111111117</v>
+      </c>
+      <c r="H50">
+        <v>9.5</v>
+      </c>
+      <c r="I50">
+        <v>0.36</v>
+      </c>
+      <c r="J50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45953</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" s="3">
+        <v>45953.529652777783</v>
+      </c>
+      <c r="F51" s="3">
+        <v>45953.674375000002</v>
+      </c>
+      <c r="G51">
+        <v>3.4733333333333332</v>
+      </c>
+      <c r="H51">
+        <v>9.5</v>
+      </c>
+      <c r="I51">
+        <v>-6.03</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45954</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45954.264606481483</v>
+      </c>
+      <c r="F52" s="3">
+        <v>45954.633379629631</v>
+      </c>
+      <c r="G52">
+        <v>8.8505555555555553</v>
+      </c>
+      <c r="H52">
+        <v>8.5</v>
+      </c>
+      <c r="I52">
+        <v>0.35</v>
+      </c>
+      <c r="J52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45955</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3">
+        <v>45955.265173611107</v>
+      </c>
+      <c r="F53" s="3">
+        <v>45955.501689814817</v>
+      </c>
+      <c r="G53">
+        <v>5.6763888888888889</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>5.68</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45957</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45957.270960648151</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45957.674097222232</v>
+      </c>
+      <c r="G54">
+        <v>9.6752777777777776</v>
+      </c>
+      <c r="H54">
+        <v>9.5</v>
+      </c>
+      <c r="I54">
+        <v>0.18</v>
+      </c>
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45958</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>45958.274155092593</v>
+      </c>
+      <c r="F55" s="3">
+        <v>45958.516898148147</v>
+      </c>
+      <c r="G55">
+        <v>5.8258333333333336</v>
+      </c>
+      <c r="H55">
+        <v>9.5</v>
+      </c>
+      <c r="I55">
+        <v>-3.67</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
+  <autoFilter ref="A1:J55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>